--- a/Code/Test_Files/test_Poly.xlsx
+++ b/Code/Test_Files/test_Poly.xlsx
@@ -1,85 +1,130 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27230"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bin/Desktop/SourceTree/Code/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33520" windowHeight="20540" tabRatio="500"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="test" sheetId="1" r:id="rId1"/>
+    <sheet name="test" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17">
   <si>
     <t>词条名称</t>
   </si>
   <si>
-    <t>流星</t>
-  </si>
-  <si>
-    <t>狂怒</t>
+    <t>百科词条名</t>
+  </si>
+  <si>
+    <t>是否被"百度百科"收录</t>
+  </si>
+  <si>
+    <t>是否被"科普中国百科"收录</t>
+  </si>
+  <si>
+    <t>词条等级</t>
+  </si>
+  <si>
+    <t>词条网址</t>
+  </si>
+  <si>
+    <t>概述字数</t>
+  </si>
+  <si>
+    <t>基本信息栏条数</t>
+  </si>
+  <si>
+    <t>一级目录条数</t>
+  </si>
+  <si>
+    <t>正文字数</t>
+  </si>
+  <si>
+    <t>参考文献条数</t>
+  </si>
+  <si>
+    <t>词条图片张数</t>
+  </si>
+  <si>
+    <t>空气动力学</t>
+  </si>
+  <si>
+    <t>已收录</t>
+  </si>
+  <si>
+    <t>未收录</t>
+  </si>
+  <si>
+    <t>http://baike.baidu.com/subview/78138/6369455.htm#viewPageContent</t>
+  </si>
+  <si>
+    <t>http://baike.baidu.com/subview/78138/6369453.htm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="5">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="DengXian"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="DengXian"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <family val="2"/>
+      <color theme="1"/>
+      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
       <name val="DengXian"/>
       <family val="2"/>
-      <charset val="134"/>
+      <color theme="1"/>
+      <sz val="10"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Helvetica"/>
+      <b val="1"/>
+      <color indexed="8"/>
       <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Helvetica"/>
+    </font>
+    <font>
+      <color rgb="00FFFFFF"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FF0000"/>
+        <bgColor rgb="00FF0000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -87,30 +132,72 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="7">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="2" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="3" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -376,35 +463,173 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:A4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A2:W3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:A13"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="150">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="22.33203125" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" width="22.33203125"/>
+    <col customWidth="1" max="2" min="2" width="16.33203125"/>
+    <col customWidth="1" max="6" min="6" width="44.6640625"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    <row customHeight="1" ht="39" r="2" spans="1:23">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
+      <c r="B2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>5</v>
+      </c>
+      <c r="R2" t="s">
+        <v>6</v>
+      </c>
+      <c r="S2" t="s">
+        <v>7</v>
+      </c>
+      <c r="T2" t="s">
+        <v>8</v>
+      </c>
+      <c r="U2" t="s">
+        <v>9</v>
+      </c>
+      <c r="V2" t="s">
+        <v>10</v>
+      </c>
+      <c r="W2" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+    <row customHeight="1" ht="19" r="3" spans="1:23">
+      <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="5" t="n">
+        <v>40</v>
+      </c>
+      <c r="H3" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="I3" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="J3" s="5" t="n">
+        <v>1271</v>
+      </c>
+      <c r="K3" s="5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L3" s="5" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>2</v>
+      <c r="M3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="P3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R3" t="n">
+        <v>106</v>
+      </c>
+      <c r="S3" t="n">
+        <v>4</v>
+      </c>
+      <c r="T3" t="n">
+        <v>5</v>
+      </c>
+      <c r="U3" t="n">
+        <v>3735</v>
+      </c>
+      <c r="V3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="W3" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <conditionalFormatting sqref="A3">
+    <cfRule dxfId="0" priority="4" type="duplicateValues"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2">
+    <cfRule dxfId="1" priority="3" type="duplicateValues"/>
+  </conditionalFormatting>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>